--- a/medicine/Enfance/Uri_Orlev/Uri_Orlev.xlsx
+++ b/medicine/Enfance/Uri_Orlev/Uri_Orlev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uri Orlev (en hébreu : אורי אורלב), né le 4 février 1931 à Varsovie et mort le 26 juillet 2022 à Jérusalem[1], est un écrivain israélien d'origine polonaise. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uri Orlev (en hébreu : אורי אורלב), né le 4 février 1931 à Varsovie et mort le 26 juillet 2022 à Jérusalem, est un écrivain israélien d'origine polonaise. 
 Il a reçu le prix Hans Christian Andersen en 1996 pour sa contribution à la littérature d'enfance et de jeunesse.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né Jerzy Henryk Orlowski à Varsovie, il grandit dans le Ghetto de Varsovie jusqu'à ce que sa mère soit tuée par les nazis et qu'il soit envoyé au camp de Bergen-Belsen. Après la Seconde Guerre mondiale, il part en Israël. Il commence à écrire pour la jeunesse en 1976, en langue hébraïque.
 </t>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Enfants de laine (סבתא סורגת, 1980), Pierrot, 1981 ; réédité sous le titre Grand-Mère tricot (סבתא סורגת), Père Castor, 1998.
 Une île rue des oiseaux (האי ברחוב הציפורים, 1981), Hachette Le Livre de poche jeunesse, 1991.
@@ -582,7 +598,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">prix Hans Christian Andersen en 1996.
 prix Bialik en 2006, avec Ruth Almog et Raquel Chalfi.
